--- a/BillOfMatLickSensor.xlsx
+++ b/BillOfMatLickSensor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurent\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurent\Documents\Internship\lickSensor\Lick-Sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47489719-BFFE-410F-B160-EBE4DF264722}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4571B5-A679-4E50-A18A-F7A6527C0FFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8CA5E1FB-34F5-4AB8-9348-34AEBC001E9C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
   <si>
     <t>Material</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Pipe to valve adapter, pipes, flow reduction clamp</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Expensive components</t>
   </si>
   <si>
@@ -268,13 +265,22 @@
   </si>
   <si>
     <t>Full total including electronics component sheet and PCB:</t>
+  </si>
+  <si>
+    <t>Expensive components Total</t>
+  </si>
+  <si>
+    <t>Cheap components Total:</t>
+  </si>
+  <si>
+    <t>Main material Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,15 +298,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,9 +368,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -396,16 +393,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,15 +411,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5214F9-DFEA-4A08-941A-82DABCACB399}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>1.1200000000000001</v>
@@ -929,90 +936,94 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1">
+      <c r="A14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18">
         <f>SUMPRODUCT(D2:D11,E2:E11)</f>
         <v>87.278000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1">
         <f>SUM('Electronics components'!D5,'Electronics components'!D14, D14)</f>
         <v>101.003</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="1">
-        <f>D22+15</f>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="1">
+        <f>D16+15</f>
         <v>116.003</v>
       </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A17:I20"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9DA4ED7B-7023-48A4-BB5C-66965F89C369}"/>
@@ -1033,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E939D25-8B97-43E9-93BD-0BAD43E2BDFA}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1059,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1065,13 +1076,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D2">
         <v>6.8</v>
@@ -1082,13 +1093,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D3">
         <v>1.98</v>
@@ -1103,11 +1114,11 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5">
         <f>SUMPRODUCT(D2:D3,E2:E3)</f>
         <v>10.76</v>
@@ -1120,7 +1131,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1137,7 +1148,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1150,13 +1161,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D9">
         <v>0.72499999999999998</v>
@@ -1167,13 +1178,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D10">
         <v>0.37</v>
@@ -1184,13 +1195,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="D11">
         <v>0.19500000000000001</v>
@@ -1210,8 +1221,8 @@
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>31</v>
+      <c r="A14" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1227,16 +1238,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1245,20 +1256,20 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -1269,7 +1280,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -1296,16 +1307,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -1314,24 +1325,24 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="12"/>
     </row>
@@ -1342,22 +1353,22 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="7">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1365,18 +1376,18 @@
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
